--- a/ADP/AEN y AEF/AEF.xlsx
+++ b/ADP/AEN y AEF/AEF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicol\Desktop\UAI-2024\ADP\Parcial 1\AEF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicol\Desktop\UAI-2024\ADP\AEN y AEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F6774B-A3D1-45EF-9063-5285926571E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89DAB41-61B4-47D4-84CE-443A0012817C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{4E46EDC1-DB39-4DE7-BEED-82DA868B1F2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E46EDC1-DB39-4DE7-BEED-82DA868B1F2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplo" sheetId="5" r:id="rId1"/>
@@ -26,6 +26,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Flrcha punteada = actividad de prueba</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59,8 +67,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1869,14 +1880,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C19BEEF-4DC8-4F47-A776-73B4D0E276BF}">
-  <dimension ref="A1"/>
+  <dimension ref="C37:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C37:F37"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1916,7 +1939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22E7D46-DBB0-4F8F-97BF-124129922F62}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="E4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
@@ -1931,7 +1954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465D6B28-A28B-41CD-879F-2F4A2B617D28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
